--- a/menejerlar_reytingi.xlsx
+++ b/menejerlar_reytingi.xlsx
@@ -420,14 +420,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -442,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Reyting ball</t>
+          <t>Reyting</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -467,14 +459,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F.I.Sh Menejer</t>
+          <t>Win +</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -491,21 +483,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F.I.Sh Menejer</t>
+          <t>Ali Ali 2022</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tillar fakulteti</t>
+          <t>Iqtisodiyot fakulteti</t>
         </is>
       </c>
     </row>

--- a/menejerlar_reytingi.xlsx
+++ b/menejerlar_reytingi.xlsx
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.78</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>

--- a/menejerlar_reytingi.xlsx
+++ b/menejerlar_reytingi.xlsx
@@ -459,14 +459,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Win +</t>
+          <t>Ali Ali 2022</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.78</v>
+        <v>4.17</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -483,21 +483,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ali Ali 2022</t>
+          <t>Аааа</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Iqtisodiyot fakulteti</t>
+          <t>Aniq fanlar fakulteti</t>
         </is>
       </c>
     </row>
